--- a/tests/frameworks/framework_diabetes.xlsx
+++ b/tests/frameworks/framework_diabetes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/frameworks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7CE387D0-660A-1345-891B-42FA64397522}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{36EB45A7-5991-644F-83DE-9EA31D90992A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="19500" windowHeight="11200" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="19500" windowHeight="11200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compartments" sheetId="2" r:id="rId1"/>
@@ -819,7 +819,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="104">
   <si>
     <t>Code Name</t>
   </si>
@@ -1107,9 +1107,6 @@
   </si>
   <si>
     <t>Proportion of those on treatment who experience treatment failure</t>
-  </si>
-  <si>
-    <t>proportion</t>
   </si>
   <si>
     <t>Proportion of those experiencing treatment failure who are offered support</t>
@@ -1577,7 +1574,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F12"/>
+      <selection activeCell="G13" sqref="G13:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1634,8 +1631,12 @@
       <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>-1</v>
+      </c>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -1852,7 +1853,12 @@
       <c r="E13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>-1</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
@@ -1870,7 +1876,12 @@
       <c r="E14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>-1</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -1887,8 +1898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView zoomScale="94" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1971,9 +1982,7 @@
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
-      <c r="N2" s="7" t="s">
-        <v>50</v>
-      </c>
+      <c r="N2" s="7"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="str">
@@ -2277,7 +2286,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2325,7 +2334,9 @@
       <c r="B2" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
       <c r="D2" s="3" t="s">
         <v>54</v>
       </c>
@@ -2343,7 +2354,9 @@
       <c r="B3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
       <c r="D3" s="3" t="s">
         <v>57</v>
       </c>
@@ -2361,7 +2374,9 @@
       <c r="B4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
       <c r="D4" s="3" t="s">
         <v>60</v>
       </c>
@@ -2379,7 +2394,9 @@
       <c r="B5" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
       <c r="D5" s="3" t="s">
         <v>63</v>
       </c>
@@ -2397,7 +2414,9 @@
       <c r="B6" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
       <c r="D6" s="3" t="s">
         <v>66</v>
       </c>
@@ -2413,9 +2432,11 @@
         <v>67</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C7" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
       <c r="D7" s="3" t="s">
         <v>57</v>
       </c>
@@ -2431,9 +2452,11 @@
         <v>68</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="3"/>
+        <v>101</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
       <c r="D8" s="3" t="s">
         <v>60</v>
       </c>
@@ -2449,9 +2472,11 @@
         <v>69</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C9" s="3"/>
+        <v>102</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
       <c r="D9" s="3" t="s">
         <v>63</v>
       </c>
@@ -2467,9 +2492,11 @@
         <v>70</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10" s="3"/>
+        <v>103</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
       <c r="D10" s="3" t="s">
         <v>66</v>
       </c>
@@ -2490,8 +2517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2744,7 +2771,7 @@
         <v>95</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -2757,10 +2784,10 @@
         <v>45</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -2773,10 +2800,10 @@
         <v>51</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -2789,10 +2816,10 @@
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>

--- a/tests/frameworks/framework_diabetes.xlsx
+++ b/tests/frameworks/framework_diabetes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/frameworks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{36EB45A7-5991-644F-83DE-9EA31D90992A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1DCFE529-61AF-8948-937F-5FD5B7C23C8D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="19500" windowHeight="11200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1899,7 +1899,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/tests/frameworks/framework_diabetes.xlsx
+++ b/tests/frameworks/framework_diabetes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/frameworks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1DCFE529-61AF-8948-937F-5FD5B7C23C8D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0378834E-693B-EF49-8D4A-A68398D1338A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="19500" windowHeight="11200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="19500" windowHeight="11200" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compartments" sheetId="2" r:id="rId1"/>
@@ -1898,8 +1898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView zoomScale="94" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2285,8 +2285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2517,14 +2517,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A2:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" customWidth="1"/>

--- a/tests/frameworks/framework_diabetes.xlsx
+++ b/tests/frameworks/framework_diabetes.xlsx
@@ -1,28 +1,79 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/frameworks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\tests\frameworks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0378834E-693B-EF49-8D4A-A68398D1338A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE54BE2-561E-4A17-95FC-7D591FBA940A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="19500" windowHeight="11200" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="19500" windowHeight="11205" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Compartments" sheetId="2" r:id="rId1"/>
-    <sheet name="Transitions" sheetId="3" r:id="rId2"/>
-    <sheet name="Characteristics" sheetId="4" r:id="rId3"/>
-    <sheet name="Parameters" sheetId="6" r:id="rId4"/>
+    <sheet name="Databook Pages" sheetId="7" r:id="rId1"/>
+    <sheet name="Compartments" sheetId="2" r:id="rId2"/>
+    <sheet name="Transitions" sheetId="3" r:id="rId3"/>
+    <sheet name="Characteristics" sheetId="4" r:id="rId4"/>
+    <sheet name="Parameters" sheetId="6" r:id="rId5"/>
+    <sheet name="Cascades" sheetId="8" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{279E83D9-790F-4C1C-9B78-72253E88BE24}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This column is for the 'code name' of a custom databook sheet.
+Normally, when constructing a databook, data-input sections for
+compartments and characteristics are placed on a single page, while
+parameters are placed on another.
+This section allows custom sheets to be defined, allowing for more
+user-friendly databook organisation.
+Note: A code name is a representative key that developers interface
+with (e.g. in scripts and the codebase).
+It should be in lower case without spaces.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{B6FD2DD6-ED2C-4141-B9D4-6C9129CFDA3E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This column is for the title of a custom databook sheet.
+Normally, when constructing a databook, data-input sections for
+compartments and characteristics are placed on a single page, while
+parameters are placed on another.
+This section allows custom sheets to be defined, allowing for more
+user-friendly databook organisation.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
@@ -247,254 +298,185 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column is for tagging a compartment as an abstract 'junction'
-state, commonly used to control the aggregation and disaggregation of
-network flows.
-These special nodes are designed to empty out their contents
-immediately after collecting inflow, meaning that they will never
-accumulate any entities at any point in time.
-Accordingly, compartment size is always zero and there must always be
-at least one compartment outflow, each of which must be specified in
-weighted format.
-Inflowing entities will be flushed out to connected states in
-proportion with the weights of the outflowing transitions.
-Models using junctions must be well designed, as a recursion limit will
-break networks involving endless cycles during simulation runtime.
-Note: This tag is only enabled for a compartment by marking the
-corresponding cell 'y'.
-Anything else, including keeping the cell blank, disables the tag.</t>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This column determines how important user-provided values for this
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">compartment are to setting up the initial state of a model.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">In general, the column value should be '1' if model construction
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">directly depends on what the user provides for compartment size.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">It should be '0' if supplied values are only for calibration or
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">note-keeping purposes.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">In this latter case, the linear-algebra method of setting up
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">compartment sizes may complain about an 'under-determined' system
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">during a model run.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">To avoid this, every zero-weighted compartment should be matched
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">by a 'characteristic' defined in a later spreadsheet that includes
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">this compartment and is not weighted zero for setup weight.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Note: Default value, i.e. a blank cell, is '1'.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Framework file parsing should also warn the user about a compartment
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">with nonzero setup weight that is suppressed in the databook, i.e.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>has a databook order of '-1'.</t>
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{233C35CB-1269-436F-BD74-8F9CD5981927}">
       <text>
         <r>
           <rPr>
             <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">This column determines how important user-provided values for this
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">compartment are to setting up the initial state of a model.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">In general, the column value should be '1' if model construction
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">directly depends on what the user provides for compartment size.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">It should be '0' if supplied values are only for calibration or
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">note-keeping purposes.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">In this latter case, the linear-algebra method of setting up
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">compartment sizes may complain about an 'under-determined' system
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">during a model run.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">To avoid this, every zero-weighted compartment should be matched
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">by a 'characteristic' defined in a later spreadsheet that includes
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">this compartment and is not weighted zero for setup weight.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Note: Default value, i.e. a blank cell, is '1'.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Framework file parsing should also warn the user about a compartment
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">with nonzero setup weight that is suppressed in the databook, i.e.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>has a databook order of '-1'.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">This column currently denotes whether a databook should request
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">values from the user for the historical size of this compartment.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>A value of '-1' suppresses it from appearing in the databook.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>This optional column determines what stage of a 'cascade' this
-compartment corresponds to.
-A cascade is a specific type of compartment network where entities
-flow sequentially from the first compartment to the last.
-A cascade stage is a subset of linked compartments including the
-last in the sequence, where Stage 1 denotes all compartments.
-For instance, with three compartments A, B and C, with transition
-structure A-&gt;B-&gt;C, Stage 1 is the characteristic for (A,B,C),
-Stage 2 is the characteristic for (B,C) and Stage 3 is characteristic
-and compartment (C).
-Note: As exemplified above, only one compartment should be marked as
-a stage.
-The rest should be marked on the characteristics page.
-This value is only used for convenience in plotting and the column
-can be safely deleted for non-cascade applications.</t>
+          <t>This column optionally marks whether a data-input section should
+appear for this compartment in a custom databook sheet, if allowed
+to appear at all according to 'databook order'.
+Each value should be a code name for a desired page defined in
+the 'custom databook pages' worksheet page.
+If a cell is left empty, the enabled data-input section should appear
+in a default databook page dedicated to state variables.</t>
         </r>
       </text>
     </comment>
@@ -502,7 +484,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
@@ -559,34 +541,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column determines how important user-provided values for this
-characteristic are to setting up the initial state of a model.
-In general, the column value should be '1' if model construction
-directly depends on what the user provides for the characteristic.
-It should be '0' if supplied values are only for calibration or
-note-keeping purposes.
-In this latter case, the linear-algebra method of setting up
-compartment sizes may complain about an 'under-determined' system
-during a model run.
-To avoid this, every compartment that has a nonzero setup weight
-should be included in at least one distinct characteristic.
-Note: Default value, i.e. a blank cell, is '1'.
-Framework file parsing should also warn the user about a characteristic
-with nonzero setup weight that is suppressed in the databook, i.e.
-has a databook order of '-1'.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -612,7 +567,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
         <r>
           <rPr>
@@ -625,20 +580,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column defines a 'default_value' attribute for a 'charac' item.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
       <text>
         <r>
           <rPr>
@@ -650,32 +592,6 @@
           <t>This column currently denotes whether a databook should request
 historical values from the user for this characteristic.
 A value of '-1' suppresses it from appearing in the databook.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This optional column determines what stage of a 'cascade' this
-characteristic corresponds to.
-A cascade is a specific type of compartment network where entities
-flow sequentially from the first compartment to the last.
-A cascade stage is a subset of linked compartments including the
-last in the sequence, where Stage 1 denotes all compartments.
-For instance, with three compartments A, B and C, with transition
-structure A-&gt;B-&gt;C, Stage 1 is the characteristic for (A,B,C),
-Stage 2 is the characteristic for (B,C) and Stage 3 is characteristic
-and compartment (C).
-Note: As exemplified above, one stage should be marked on the
-compartment page, with the rest marked on this page.
-This value is only used for convenience in plotting and the column
-can be safely deleted for non-cascade applications.</t>
         </r>
       </text>
     </comment>
@@ -683,7 +599,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
@@ -747,59 +663,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000007000000}">
       <text>
         <r>
           <rPr>
             <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column defines a 'default_value' attribute for a 'par' item.</t>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This column defines a 'func' attribute for a 'par' item.</t>
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000005000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column defines a 'min' attribute for a 'par' item.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000006000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column defines a 'max' attribute for a 'par' item.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000007000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column defines a 'func' attribute for a 'par' item.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000009000000}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000009000000}">
       <text>
         <r>
           <rPr>
@@ -819,7 +696,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="105">
   <si>
     <t>Code Name</t>
   </si>
@@ -833,18 +710,9 @@
     <t>Is Sink</t>
   </si>
   <si>
-    <t>Is Junction</t>
-  </si>
-  <si>
     <t>Setup Weight</t>
   </si>
   <si>
-    <t>Databook Order</t>
-  </si>
-  <si>
-    <t>Cascade Stage</t>
-  </si>
-  <si>
     <t>n</t>
   </si>
   <si>
@@ -854,18 +722,9 @@
     <t>Denominator</t>
   </si>
   <si>
-    <t>Default Value</t>
-  </si>
-  <si>
     <t>Format</t>
   </si>
   <si>
-    <t>Minimum Value</t>
-  </si>
-  <si>
-    <t>Maximum Value</t>
-  </si>
-  <si>
     <t>Function</t>
   </si>
   <si>
@@ -1131,6 +990,27 @@
   </si>
   <si>
     <t>Proportion with HbA1c control</t>
+  </si>
+  <si>
+    <t>Datasheet Code Name</t>
+  </si>
+  <si>
+    <t>Datasheet Title</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>Databook Page</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>Constituents</t>
   </si>
 </sst>
 </file>
@@ -1201,7 +1081,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1222,6 +1102,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1570,26 +1451,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E3E2FBC-6920-4C92-9BAD-4EEA5AC3BB87}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13:G14"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1606,286 +1521,246 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2">
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="2">
         <v>0</v>
       </c>
-      <c r="G2" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="2">
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="2">
         <v>0</v>
       </c>
-      <c r="G13" s="2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2">
-        <v>-1</v>
-      </c>
+      <c r="F14" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E14" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:D14" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"n,y"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1894,7 +1769,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N14"/>
   <sheetViews>
@@ -1902,13 +1777,13 @@
       <selection activeCell="A2" sqref="A2:A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="14" width="11.5" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="14" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="B1" s="6" t="str">
         <f>Compartments!$A$2</f>
@@ -1963,14 +1838,14 @@
         <v>dead-other</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="str">
         <f>Compartments!$A$2</f>
         <v>sus</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -1984,7 +1859,7 @@
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="str">
         <f>Compartments!$A$3</f>
         <v>unsc-uncomp</v>
@@ -1992,10 +1867,10 @@
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -2006,10 +1881,10 @@
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
       <c r="N3" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="str">
         <f>Compartments!$A$4</f>
         <v>unsc-vd</v>
@@ -2019,7 +1894,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -2028,13 +1903,13 @@
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="str">
         <f>Compartments!$A$5</f>
         <v>sc-uncomp</v>
@@ -2044,10 +1919,10 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -2056,10 +1931,10 @@
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
       <c r="N5" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="str">
         <f>Compartments!$A$6</f>
         <v>sc-vd</v>
@@ -2071,20 +1946,20 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="str">
         <f>Compartments!$A$7</f>
         <v>dx-uncomp</v>
@@ -2096,20 +1971,20 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
       <c r="N7" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="str">
         <f>Compartments!$A$8</f>
         <v>dx-vd</v>
@@ -2123,18 +1998,18 @@
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="str">
         <f>Compartments!$A$9</f>
         <v>txs-uncomp</v>
@@ -2149,15 +2024,15 @@
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="str">
         <f>Compartments!$A$10</f>
         <v>txs-vd</v>
@@ -2173,16 +2048,16 @@
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="N10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="str">
         <f>Compartments!$A$11</f>
         <v>txf-uncomp</v>
@@ -2195,19 +2070,19 @@
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M11" s="7"/>
       <c r="N11" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="str">
         <f>Compartments!$A$12</f>
         <v>txf-vd</v>
@@ -2221,18 +2096,18 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="str">
         <f>Compartments!$A$13</f>
         <v>dead-dm</v>
@@ -2251,7 +2126,7 @@
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="str">
         <f>Compartments!$A$14</f>
         <v>dead-other</v>
@@ -2281,27 +2156,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="75.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="88.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="7" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2309,203 +2182,157 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="3">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="B8" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="B9" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="B10" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
+        <v>101</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2513,27 +2340,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A2:A17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" customWidth="1"/>
-    <col min="6" max="6" width="5.33203125" customWidth="1"/>
-    <col min="7" max="7" width="39.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2541,321 +2365,275 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" t="s">
-        <v>82</v>
-      </c>
-      <c r="H4" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" t="s">
-        <v>88</v>
-      </c>
-      <c r="H8" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" t="s">
-        <v>94</v>
-      </c>
-      <c r="H11" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B15" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C15" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>99</v>
-      </c>
       <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E17" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -2866,4 +2644,71 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B82EF7CB-0D36-4FC2-A60C-EDB990F8D4BD}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="55.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tests/frameworks/framework_diabetes.xlsx
+++ b/tests/frameworks/framework_diabetes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\tests\frameworks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/frameworks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE54BE2-561E-4A17-95FC-7D591FBA940A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{013A822B-0D60-1541-B73A-E9AC47C7695E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="465" windowWidth="19500" windowHeight="11205" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="19500" windowHeight="11200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Databook Pages" sheetId="7" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Parameters" sheetId="6" r:id="rId5"/>
     <sheet name="Cascades" sheetId="8" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -56,16 +56,61 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column is for the title of a custom databook sheet.
-Normally, when constructing a databook, data-input sections for
-compartments and characteristics are placed on a single page, while
-parameters are placed on another.
-This section allows custom sheets to be defined, allowing for more
-user-friendly databook organisation.</t>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This column is for the title of a custom databook sheet.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Normally, when constructing a databook, data-input sections for
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">compartments and characteristics are placed on a single page, while
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">parameters are placed on another.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This section allows custom sheets to be defined, allowing for more
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>user-friendly databook organisation.</t>
         </r>
       </text>
     </comment>
@@ -109,24 +154,141 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column is for the 'display name' of a compartment within a
-population cascade, a state that an entity can exist in that is
-distinct from all other states.
-Examples may include 'Susceptible', 'Infected Stage 1', 'Recovered',
-etc.
-If entities in the network involve two 'orthogonal' descriptors,
-compartments should combine the status of each state in the title,
-e.g. 'High Income Earner + Year 12 Education', to make sure that each
-entity in a cascade is only ever in one state at a time.
-It is possible to bundle independent states as analytical features of
-interest elsewhere in the framework file.
-Note: A display name is a representative label that users interface
-with (e.g. in databooks and plots).
-It should be in title or sentence case.</t>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This column is for the 'display name' of a compartment within a
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">population cascade, a state that an entity can exist in that is
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">distinct from all other states.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Examples may include 'Susceptible', 'Infected Stage 1', 'Recovered',
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">etc.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">If entities in the network involve two 'orthogonal' descriptors,
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">compartments should combine the status of each state in the title,
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">e.g. 'High Income Earner + Year 12 Education', to make sure that each
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">entity in a cascade is only ever in one state at a time.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">It is possible to bundle independent states as analytical features of
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">interest elsewhere in the framework file.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Note: A display name is a representative label that users interface
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">with (e.g. in databooks and plots).
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>It should be in title or sentence case.</t>
         </r>
       </text>
     </comment>
@@ -696,7 +858,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="107">
   <si>
     <t>Code Name</t>
   </si>
@@ -917,9 +1079,6 @@
     <t>num_screen_fn</t>
   </si>
   <si>
-    <t>Number screened for T2DM by family nurses (annual)</t>
-  </si>
-  <si>
     <t>num_screen_oc</t>
   </si>
   <si>
@@ -998,12 +1157,6 @@
     <t>Datasheet Title</t>
   </si>
   <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
     <t>Databook Page</t>
   </si>
   <si>
@@ -1011,6 +1164,21 @@
   </si>
   <si>
     <t>Constituents</t>
+  </si>
+  <si>
+    <t>stocks</t>
+  </si>
+  <si>
+    <t>flows</t>
+  </si>
+  <si>
+    <t>Stocks</t>
+  </si>
+  <si>
+    <t>Flows</t>
+  </si>
+  <si>
+    <t>Number screened for T2DM by Feldsher family nurses (annual)</t>
   </si>
 </sst>
 </file>
@@ -1452,32 +1620,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E3E2FBC-6920-4C92-9BAD-4EEA5AC3BB87}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1490,21 +1666,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1521,10 +1697,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -1542,7 +1718,7 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -1557,10 +1733,10 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -1575,10 +1751,10 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
@@ -1592,11 +1768,9 @@
         <v>5</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
@@ -1610,11 +1784,9 @@
         <v>5</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
@@ -1628,11 +1800,9 @@
         <v>5</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>24</v>
       </c>
@@ -1646,11 +1816,9 @@
         <v>5</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
@@ -1664,11 +1832,9 @@
         <v>5</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>30</v>
       </c>
@@ -1682,11 +1848,9 @@
         <v>5</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>31</v>
       </c>
@@ -1700,11 +1864,9 @@
         <v>5</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>32</v>
       </c>
@@ -1718,11 +1880,9 @@
         <v>5</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>40</v>
       </c>
@@ -1740,7 +1900,7 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>41</v>
       </c>
@@ -1777,13 +1937,13 @@
       <selection activeCell="A2" sqref="A2:A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="14" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="14" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="5"/>
       <c r="B1" s="6" t="str">
         <f>Compartments!$A$2</f>
@@ -1838,7 +1998,7 @@
         <v>dead-other</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="str">
         <f>Compartments!$A$2</f>
         <v>sus</v>
@@ -1859,7 +2019,7 @@
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="str">
         <f>Compartments!$A$3</f>
         <v>unsc-uncomp</v>
@@ -1884,7 +2044,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="str">
         <f>Compartments!$A$4</f>
         <v>unsc-vd</v>
@@ -1909,7 +2069,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="str">
         <f>Compartments!$A$5</f>
         <v>sc-uncomp</v>
@@ -1934,7 +2094,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="str">
         <f>Compartments!$A$6</f>
         <v>sc-vd</v>
@@ -1959,7 +2119,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="str">
         <f>Compartments!$A$7</f>
         <v>dx-uncomp</v>
@@ -1984,7 +2144,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="str">
         <f>Compartments!$A$8</f>
         <v>dx-vd</v>
@@ -2009,7 +2169,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="str">
         <f>Compartments!$A$9</f>
         <v>txs-uncomp</v>
@@ -2032,7 +2192,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="str">
         <f>Compartments!$A$10</f>
         <v>txs-vd</v>
@@ -2057,7 +2217,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="str">
         <f>Compartments!$A$11</f>
         <v>txf-uncomp</v>
@@ -2082,7 +2242,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="str">
         <f>Compartments!$A$12</f>
         <v>txf-vd</v>
@@ -2107,7 +2267,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="str">
         <f>Compartments!$A$13</f>
         <v>dead-dm</v>
@@ -2126,7 +2286,7 @@
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="str">
         <f>Compartments!$A$14</f>
         <v>dead-other</v>
@@ -2160,21 +2320,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="88.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="7" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="88.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="7" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2188,10 +2348,10 @@
         <v>7</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>46</v>
       </c>
@@ -2202,11 +2362,11 @@
         <v>48</v>
       </c>
       <c r="D2" s="3"/>
-      <c r="E2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>49</v>
       </c>
@@ -2217,11 +2377,11 @@
         <v>51</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>52</v>
       </c>
@@ -2232,11 +2392,11 @@
         <v>54</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>55</v>
       </c>
@@ -2247,11 +2407,11 @@
         <v>57</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>58</v>
       </c>
@@ -2262,16 +2422,16 @@
         <v>60</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>51</v>
@@ -2279,16 +2439,14 @@
       <c r="D7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>54</v>
@@ -2296,16 +2454,14 @@
       <c r="D8" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>57</v>
@@ -2313,16 +2469,14 @@
       <c r="D9" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>60</v>
@@ -2330,9 +2484,7 @@
       <c r="D10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E10" t="s">
-        <v>101</v>
-      </c>
+      <c r="E10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2345,19 +2497,19 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D1"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.5703125" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.5" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2371,10 +2523,10 @@
         <v>9</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -2386,10 +2538,10 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -2401,10 +2553,10 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -2415,11 +2567,11 @@
         <v>66</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -2431,204 +2583,204 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>72</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>36</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>38</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>39</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>45</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>44</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2651,24 +2803,24 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="55.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>47</v>
       </c>
@@ -2676,7 +2828,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>50</v>
       </c>
@@ -2684,7 +2836,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>53</v>
       </c>
@@ -2692,7 +2844,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>56</v>
       </c>
@@ -2700,7 +2852,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>59</v>
       </c>

--- a/tests/frameworks/framework_diabetes.xlsx
+++ b/tests/frameworks/framework_diabetes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/frameworks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{52FB8D39-73B7-9B4B-A724-514C01BB2CE7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6B12F229-4339-394E-934E-718C9A211AD2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="1540" windowWidth="22200" windowHeight="11340" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -535,7 +535,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -544,12 +544,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-The transition matrix specifies which transitions exist and which parameter governs them. Transitions go from row to column</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The transition matrix specifies which transitions exist and which parameter governs them. Transitions go from row to column</t>
         </r>
       </text>
     </comment>
@@ -961,12 +970,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Template</t>
-  </si>
-  <si>
-    <t>This is a template cascade</t>
-  </si>
-  <si>
     <t>stocks</t>
   </si>
   <si>
@@ -1397,6 +1400,12 @@
   </si>
   <si>
     <t>Treatment failure rate</t>
+  </si>
+  <si>
+    <t>Diabetes</t>
+  </si>
+  <si>
+    <t>Framework for a diabetes model, including vital dynamics and new cases</t>
   </si>
 </sst>
 </file>
@@ -1406,7 +1415,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _k_r_._-;\-* #,##0.00\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1450,6 +1459,19 @@
     </font>
     <font>
       <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
@@ -1577,7 +1599,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1591,56 +1613,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1717,7 +1690,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1725,6 +1698,48 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1746,6 +1761,30 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1797,26 +1836,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2181,7 +2203,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2200,57 +2222,57 @@
     </row>
     <row r="2" spans="1:2" ht="234.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>13</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -2258,15 +2280,15 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -2294,26 +2316,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
         <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
         <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2335,7 +2357,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A14" sqref="A14:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2349,19 +2371,19 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -2369,30 +2391,30 @@
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
@@ -2401,180 +2423,180 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
@@ -2583,16 +2605,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
@@ -2624,7 +2646,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="expression" dxfId="38" priority="1">
+    <cfRule type="expression" dxfId="39" priority="1">
       <formula>AND(A2&lt;&gt;"",NOT(B2&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2676,7 +2698,7 @@
   <dimension ref="A1:OI399"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4290,7 +4312,7 @@
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -4313,7 +4335,7 @@
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -4326,7 +4348,7 @@
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:399" x14ac:dyDescent="0.2">
@@ -4338,10 +4360,10 @@
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -4352,7 +4374,7 @@
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:399" x14ac:dyDescent="0.2">
@@ -4366,7 +4388,7 @@
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -4375,10 +4397,10 @@
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:399" x14ac:dyDescent="0.2">
@@ -4392,10 +4414,10 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
@@ -4404,7 +4426,7 @@
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:399" x14ac:dyDescent="0.2">
@@ -4420,17 +4442,17 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:399" x14ac:dyDescent="0.2">
@@ -4446,17 +4468,17 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:399" x14ac:dyDescent="0.2">
@@ -4474,15 +4496,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="N9" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:399" x14ac:dyDescent="0.2">
@@ -4501,12 +4523,12 @@
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:399" x14ac:dyDescent="0.2">
@@ -4526,13 +4548,13 @@
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:399" x14ac:dyDescent="0.2">
@@ -4549,16 +4571,16 @@
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N12" s="6"/>
       <c r="O12" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:399" x14ac:dyDescent="0.2">
@@ -4576,15 +4598,15 @@
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:399" x14ac:dyDescent="0.2">
@@ -6938,22 +6960,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B15">
-    <cfRule type="notContainsBlanks" dxfId="35" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="36" priority="4">
       <formula>LEN(TRIM(B3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:O2">
-    <cfRule type="notContainsBlanks" dxfId="34" priority="3">
+    <cfRule type="notContainsBlanks" dxfId="35" priority="3">
       <formula>LEN(TRIM(D2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="notContainsBlanks" dxfId="33" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="34" priority="2">
       <formula>LEN(TRIM(B2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="notContainsBlanks" dxfId="32" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="33" priority="1">
       <formula>LEN(TRIM(C2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6989,7 +7011,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7018,22 +7040,22 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>147</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F2" s="2">
         <v>1</v>
@@ -7044,17 +7066,17 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F3" s="2">
         <v>1</v>
@@ -7062,17 +7084,17 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F4" s="2">
         <v>1</v>
@@ -7080,17 +7102,17 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F5" s="2">
         <v>1</v>
@@ -7098,17 +7120,17 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F6" s="2">
         <v>1</v>
@@ -7116,17 +7138,17 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F7" s="2">
         <v>1</v>
@@ -7134,61 +7156,61 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E11" s="2"/>
     </row>
@@ -7207,7 +7229,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="expression" dxfId="28" priority="2">
+    <cfRule type="expression" dxfId="29" priority="2">
       <formula>AND(#REF!&lt;&gt;"",NOT(E2&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7272,7 +7294,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7288,42 +7310,42 @@
   <sheetData>
     <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D2" s="7">
         <v>15828</v>
@@ -7333,21 +7355,21 @@
       </c>
       <c r="F2" s="7"/>
       <c r="H2" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="7">
@@ -7355,21 +7377,21 @@
       </c>
       <c r="F3" s="7"/>
       <c r="H3" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2">
@@ -7379,22 +7401,22 @@
         <v>1</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -7403,21 +7425,21 @@
         <v>0</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2">
@@ -7426,44 +7448,46 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2">
         <v>0</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
       <c r="G7" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2">
@@ -7471,22 +7495,22 @@
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2">
@@ -7496,22 +7520,22 @@
         <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2">
@@ -7520,21 +7544,21 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2">
@@ -7544,22 +7568,22 @@
         <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="2">
@@ -7568,21 +7592,21 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="2">
@@ -7592,22 +7616,22 @@
         <v>1</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D14" s="2">
         <v>0.5</v>
@@ -7619,21 +7643,21 @@
         <v>1</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="2">
@@ -7643,21 +7667,21 @@
         <v>1</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D16" s="2">
         <v>2.5000000000000001E-2</v>
@@ -7669,21 +7693,21 @@
         <v>1</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D17" s="2">
         <v>1.4999999999999999E-2</v>
@@ -7695,10 +7719,10 @@
         <v>1</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -7786,37 +7810,37 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="expression" dxfId="16" priority="10">
+    <cfRule type="expression" dxfId="19" priority="10">
       <formula>AND(A2&lt;&gt;"",NOT(B2&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="expression" dxfId="15" priority="9">
+    <cfRule type="expression" dxfId="18" priority="9">
       <formula>AND(#REF!&lt;&gt;"",NOT(I2&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="expression" dxfId="13" priority="6">
+    <cfRule type="expression" dxfId="17" priority="6">
       <formula>AND(A4&lt;&gt;"",NOT(B4&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="expression" dxfId="12" priority="7">
+    <cfRule type="expression" dxfId="16" priority="7">
       <formula>AND(#REF!&lt;&gt;"",NOT(I4&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="expression" dxfId="10" priority="3">
+    <cfRule type="expression" dxfId="15" priority="3">
       <formula>AND(A7&lt;&gt;"",NOT(B7&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:I8">
-    <cfRule type="expression" dxfId="9" priority="4">
+    <cfRule type="expression" dxfId="14" priority="4">
       <formula>AND(#REF!&lt;&gt;"",NOT(I7&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="13" priority="1">
       <formula>AND(A8&lt;&gt;"",NOT(B8&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7954,7 +7978,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>8</v>
@@ -7962,48 +7986,48 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -8014,7 +8038,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>8</v>
@@ -8024,47 +8048,47 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>8</v>
@@ -8072,77 +8096,77 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E3:E8">
-    <cfRule type="expression" dxfId="7" priority="9">
+    <cfRule type="expression" dxfId="6" priority="9">
       <formula>AND(D3&lt;&gt;"",NOT(E3&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A4">
-    <cfRule type="expression" dxfId="6" priority="8">
+    <cfRule type="expression" dxfId="5" priority="8">
       <formula>AND(XFD2&lt;&gt;"",NOT(A2&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A6">
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="4" priority="7">
       <formula>AND(XFD5&lt;&gt;"",NOT(A5&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:A18">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>AND(XFD16&lt;&gt;"",NOT(A16&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:A20">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>AND(XFD19&lt;&gt;"",NOT(A19&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:A11">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="1" priority="4">
       <formula>AND(XFD9&lt;&gt;"",NOT(A9&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:A13">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>AND(XFD12&lt;&gt;"",NOT(A12&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/tests/frameworks/framework_diabetes.xlsx
+++ b/tests/frameworks/framework_diabetes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/frameworks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6B12F229-4339-394E-934E-718C9A211AD2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5F562D57-3B74-5148-9FE9-9A041C47FDC4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1540" windowWidth="22200" windowHeight="11340" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="1540" windowWidth="22200" windowHeight="11340" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="9" r:id="rId1"/>
@@ -932,7 +932,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="158">
   <si>
     <t>Code Name</t>
   </si>
@@ -2356,8 +2356,8 @@
   </sheetPr>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2453,9 +2453,7 @@
         <v>60</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -2471,7 +2469,9 @@
         <v>60</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
@@ -2503,7 +2503,9 @@
         <v>60</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -2535,7 +2537,9 @@
         <v>60</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
@@ -2567,7 +2571,9 @@
         <v>60</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
@@ -7293,7 +7299,7 @@
   </sheetPr>
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>

--- a/tests/frameworks/framework_diabetes.xlsx
+++ b/tests/frameworks/framework_diabetes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/frameworks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5F562D57-3B74-5148-9FE9-9A041C47FDC4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7C2E855B-D936-AE44-9C24-C25439828299}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="1540" windowWidth="22200" windowHeight="11340" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -932,7 +932,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="158">
   <si>
     <t>Code Name</t>
   </si>
@@ -2357,7 +2357,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2453,7 +2453,9 @@
         <v>60</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -2469,9 +2471,7 @@
         <v>60</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
@@ -2503,9 +2503,7 @@
         <v>60</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -2537,9 +2535,7 @@
         <v>60</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
@@ -2571,9 +2567,7 @@
         <v>60</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">

--- a/tests/frameworks/framework_diabetes.xlsx
+++ b/tests/frameworks/framework_diabetes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/frameworks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7C2E855B-D936-AE44-9C24-C25439828299}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{29D14515-BFBF-1447-9303-71CC95DB3CDE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="1540" windowWidth="22200" windowHeight="11340" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2357,7 +2357,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2434,7 +2434,9 @@
       <c r="D4" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
       <c r="F4" s="2" t="s">
         <v>12</v>
       </c>
